--- a/data/analysis/responsiveness_by_state_2012-2020.xlsx
+++ b/data/analysis/responsiveness_by_state_2012-2020.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10104"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10110"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alecramsay/Documents/dev/ushouse/data/analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{93612CCD-B886-684D-A3B7-B83662918256}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41C24745-8B75-B447-8A80-517794DACE45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1480" yWindow="1000" windowWidth="26940" windowHeight="16440" xr2:uid="{3E45E47E-2E5C-124B-9352-1BDEE8D184C8}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
   <connection id="1" xr16:uid="{8C1BD5BB-27B8-F04A-9490-51845303DF63}" name="responsiveness_by_state_2012-2020" type="6" refreshedVersion="8" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/alecramsay/Documents/dev/ushouse/data/analysis/responsiveness_by_state_2012-2020.csv" comma="1">
+    <textPr sourceFile="/Users/alecramsay/Documents/dev/ushouse/data/analysis/responsiveness_by_state_2012-2020.csv" comma="1">
       <textFields count="3">
         <textField type="text"/>
         <textField/>
@@ -235,12 +235,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -255,13 +261,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -583,10 +590,10 @@
   <dimension ref="A1:C51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K23" sqref="K23"/>
+      <selection pane="bottomRight" activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -655,7 +662,7 @@
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="6">
         <v>1.5102660000000001</v>
       </c>
       <c r="C6" s="5">
@@ -842,7 +849,7 @@
       <c r="A23" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B23" s="5">
+      <c r="B23" s="6">
         <v>2.3947630000000002</v>
       </c>
       <c r="C23" s="5">
@@ -930,7 +937,7 @@
       <c r="A31" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B31" s="5">
+      <c r="B31" s="6">
         <v>4.6766129999999997</v>
       </c>
       <c r="C31" s="5">
@@ -1106,7 +1113,7 @@
       <c r="A47" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B47" s="5">
+      <c r="B47" s="6">
         <v>4.1732719999999999</v>
       </c>
       <c r="C47" s="5">
